--- a/pred_ohlcv/54_21/2020-01-24 FX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 FX ohlcv.xlsx
@@ -1380,7 +1380,7 @@
         <v>32678.05472282411</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>32678.05472282411</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>32029.34082282411</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>31937.34082282411</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>13034.22861461293</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>28947.61081461293</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>28587.11391461293</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>21124.32011461293</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>21061.32011461293</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>21079.32011461293</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>21279.81691461293</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>20002.64851461293</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>20010.64851461293</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>14159.64851461293</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>115794.4535146129</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>85801.15171461292</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>85809.15171461292</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>83841.92041461292</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>83787.50171461292</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>83787.50171461292</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>85253.25801461293</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>85053.25801461293</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>75699.04071461291</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>75699.04071461291</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>75738.66031461292</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>72638.66031461292</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>58159.11965165837</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>38054.32255165836</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>43719.84961490925</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>43719.84961490925</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>43719.84961490925</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>43699.84961490925</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>43707.84961490925</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>73576.22041461291</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>73539.22041461291</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>58220.22041461291</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>55088.59281461291</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-24 FX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 FX ohlcv.xlsx
@@ -1328,7 +1328,7 @@
         <v>32820.05472282411</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>32678.05472282411</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>32686.05472282411</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>32018.84692282411</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>32029.34082282411</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>31937.34082282411</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>23733.29631461293</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>3034.228614612926</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>13034.22861461293</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>28947.61081461293</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>28587.11391461293</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>21143.32011461293</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>21043.32011461293</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>21419.81691461293</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>21279.81691461293</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>20002.64851461293</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>20010.64851461293</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>14159.64851461293</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>14167.64851461293</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>14667.13612916517</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>14360.58482916517</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>14368.58482916517</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>32420.58482916517</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>32420.58482916517</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>58159.11965165837</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>73539.22041461291</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>58220.22041461291</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>61929.72611461291</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
